--- a/backend/Volunteer(Responses).xlsx
+++ b/backend/Volunteer(Responses).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JP Morgan\mongodb\login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\JP Morgan\1\Team-11\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095278D1-17DF-4E1A-93B8-6B6BA4A0291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F22BD52-12ED-4C79-BBD6-A5AC98798651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>sfsfds</t>
-  </si>
-  <si>
-    <t>sfdszfef</t>
-  </si>
-  <si>
-    <t>sfsdzfsf</t>
-  </si>
-  <si>
-    <t>gdfgdfg</t>
-  </si>
-  <si>
-    <t>dgdzgd</t>
-  </si>
-  <si>
-    <t>gdsge</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -58,9 +40,6 @@
     <t>qualification</t>
   </si>
   <si>
-    <t>organization_name</t>
-  </si>
-  <si>
     <t>aadhaar_number</t>
   </si>
   <si>
@@ -76,17 +55,467 @@
     <t>payment_ss</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>sdfsdfsf</t>
+    <t>Rajesh Sharma</t>
+  </si>
+  <si>
+    <t>rajesh.sharma@example.com</t>
+  </si>
+  <si>
+    <t>123 Park Road, New Delhi, India</t>
+  </si>
+  <si>
+    <t>+91 9876543210</t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>B.Tech. Computer Science</t>
+  </si>
+  <si>
+    <t>1234 5678 9012</t>
+  </si>
+  <si>
+    <t>ABC Organization</t>
+  </si>
+  <si>
+    <t>Front-end Development</t>
+  </si>
+  <si>
+    <t>Willing to contribute</t>
+  </si>
+  <si>
+    <t>PAY0123456789012</t>
+  </si>
+  <si>
+    <t>Priya Patel</t>
+  </si>
+  <si>
+    <t>priya.patel@example.com</t>
+  </si>
+  <si>
+    <t>456 Street, Mumbai, India</t>
+  </si>
+  <si>
+    <t>+91 8765432109</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>M.Sc. Data Analytics</t>
+  </si>
+  <si>
+    <t>2345 6789 0123</t>
+  </si>
+  <si>
+    <t>XYZ Foundation</t>
+  </si>
+  <si>
+    <t>Data Mining</t>
+  </si>
+  <si>
+    <t>Strong analytical skills</t>
+  </si>
+  <si>
+    <t>PAY1234567890123</t>
+  </si>
+  <si>
+    <t>Amit Verma</t>
+  </si>
+  <si>
+    <t>amit.verma@example.com</t>
+  </si>
+  <si>
+    <t>789 Lane, Bangalore, India</t>
+  </si>
+  <si>
+    <t>+91 7654321098</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>M.Tech. Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>3456 7890 1234</t>
+  </si>
+  <si>
+    <t>PQR Organization</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Passionate about education</t>
+  </si>
+  <si>
+    <t>PAY2345678901234</t>
+  </si>
+  <si>
+    <t>Anita Gupta</t>
+  </si>
+  <si>
+    <t>anita.gupta@example.com</t>
+  </si>
+  <si>
+    <t>987 Avenue, Kolkata, India</t>
+  </si>
+  <si>
+    <t>+91 6543210987</t>
+  </si>
+  <si>
+    <t>Cybersecurity</t>
+  </si>
+  <si>
+    <t>B.Sc. Cybersecurity</t>
+  </si>
+  <si>
+    <t>4567 8901 2345</t>
+  </si>
+  <si>
+    <t>LMN Charity</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>Good problem-solving abilities</t>
+  </si>
+  <si>
+    <t>PAY3456789012345</t>
+  </si>
+  <si>
+    <t>Sanjay Singh</t>
+  </si>
+  <si>
+    <t>sanjay.singh@example.com</t>
+  </si>
+  <si>
+    <t>123 Road, Chennai, India</t>
+  </si>
+  <si>
+    <t>+91 5432109876</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>MBA Marketing</t>
+  </si>
+  <si>
+    <t>5678 9012 3456</t>
+  </si>
+  <si>
+    <t>Digital Marketing</t>
+  </si>
+  <si>
+    <t>Excellent communication skills</t>
+  </si>
+  <si>
+    <t>PAY4567890123456</t>
+  </si>
+  <si>
+    <t>Neha Sharma</t>
+  </si>
+  <si>
+    <t>neha.sharma@example.com</t>
+  </si>
+  <si>
+    <t>456 Street, New Delhi, India</t>
+  </si>
+  <si>
+    <t>+91 4321098765</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>B.A. Graphic Design</t>
+  </si>
+  <si>
+    <t>6789 0123 4567</t>
+  </si>
+  <si>
+    <t>UI/UX Design</t>
+  </si>
+  <si>
+    <t>Good attention to detail</t>
+  </si>
+  <si>
+    <t>PAY5678901234567</t>
+  </si>
+  <si>
+    <t>Vikram Patel</t>
+  </si>
+  <si>
+    <t>vikram.patel@example.com</t>
+  </si>
+  <si>
+    <t>789 Lane, Mumbai, India</t>
+  </si>
+  <si>
+    <t>+91 3210987654</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>7890 1234 5678</t>
+  </si>
+  <si>
+    <t>PQR Charity</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Strong data analysis skills</t>
+  </si>
+  <si>
+    <t>PAY6789012345678</t>
+  </si>
+  <si>
+    <t>Anjali Verma</t>
+  </si>
+  <si>
+    <t>anjali.verma@example.com</t>
+  </si>
+  <si>
+    <t>987 Avenue, Bangalore, India</t>
+  </si>
+  <si>
+    <t>+91 2109876543</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>8901 2345 6789</t>
+  </si>
+  <si>
+    <t>LMN Organization</t>
+  </si>
+  <si>
+    <t>Available during weekends</t>
+  </si>
+  <si>
+    <t>PAY7890123456789</t>
+  </si>
+  <si>
+    <t>Aakash Gupta</t>
+  </si>
+  <si>
+    <t>aakash.gupta@example.com</t>
+  </si>
+  <si>
+    <t>123 Road, Kolkata, India</t>
+  </si>
+  <si>
+    <t>+91 0987654321</t>
+  </si>
+  <si>
+    <t>Business Management</t>
+  </si>
+  <si>
+    <t>MBA Business Management</t>
+  </si>
+  <si>
+    <t>9012 3456 7890</t>
+  </si>
+  <si>
+    <t>ABC Foundation</t>
+  </si>
+  <si>
+    <t>Leadership, Strategy</t>
+  </si>
+  <si>
+    <t>Dedicated to social causes</t>
+  </si>
+  <si>
+    <t>PAY8901234567890</t>
+  </si>
+  <si>
+    <t>Smita Singh</t>
+  </si>
+  <si>
+    <t>smita.singh@example.com</t>
+  </si>
+  <si>
+    <t>456 Street, Chennai, India</t>
+  </si>
+  <si>
+    <t>Mobile App Development</t>
+  </si>
+  <si>
+    <t>0123 4567 8901</t>
+  </si>
+  <si>
+    <t>XYZ Organization</t>
+  </si>
+  <si>
+    <t>Android Development</t>
+  </si>
+  <si>
+    <t>PAY9012345678901</t>
+  </si>
+  <si>
+    <t>Rahul Patel</t>
+  </si>
+  <si>
+    <t>rahul.patel@example.com</t>
+  </si>
+  <si>
+    <t>789 Lane, New Delhi, India</t>
+  </si>
+  <si>
+    <t>M.Sc. Data Science</t>
+  </si>
+  <si>
+    <t>Sneha Verma</t>
+  </si>
+  <si>
+    <t>sneha.verma@example.com</t>
+  </si>
+  <si>
+    <t>987 Avenue, Mumbai, India</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure</t>
+  </si>
+  <si>
+    <t>Manoj Gupta</t>
+  </si>
+  <si>
+    <t>manoj.gupta@example.com</t>
+  </si>
+  <si>
+    <t>123 Road, Bangalore, India</t>
+  </si>
+  <si>
+    <t>Pooja Singh</t>
+  </si>
+  <si>
+    <t>pooja.singh@example.com</t>
+  </si>
+  <si>
+    <t>456 Street, Kolkata, India</t>
+  </si>
+  <si>
+    <t>Vinay Sharma</t>
+  </si>
+  <si>
+    <t>vinay.sharma@example.com</t>
+  </si>
+  <si>
+    <t>789 Lane, Chennai, India</t>
+  </si>
+  <si>
+    <t>Kavita Verma</t>
+  </si>
+  <si>
+    <t>kavita.verma@example.com</t>
+  </si>
+  <si>
+    <t>987 Avenue, New Delhi, India</t>
+  </si>
+  <si>
+    <t>Rajat Patel</t>
+  </si>
+  <si>
+    <t>rajat.patel@example.com</t>
+  </si>
+  <si>
+    <t>123 Road, Mumbai, India</t>
+  </si>
+  <si>
+    <t>Divya Singh</t>
+  </si>
+  <si>
+    <t>divya.singh@example.com</t>
+  </si>
+  <si>
+    <t>456 Street, Bangalore, India</t>
+  </si>
+  <si>
+    <t>Aman Gupta</t>
+  </si>
+  <si>
+    <t>aman.gupta@example.com</t>
+  </si>
+  <si>
+    <t>789 Lane, Kolkata, India</t>
+  </si>
+  <si>
+    <t>Renuka Sharma</t>
+  </si>
+  <si>
+    <t>renuka.sharma@example.com</t>
+  </si>
+  <si>
+    <t>ABC Charity</t>
+  </si>
+  <si>
+    <t>Vishal Patel</t>
+  </si>
+  <si>
+    <t>vishal.patel@example.com</t>
+  </si>
+  <si>
+    <t>Ananya Verma</t>
+  </si>
+  <si>
+    <t>ananya.verma@example.com</t>
+  </si>
+  <si>
+    <t>Gaurav Gupta</t>
+  </si>
+  <si>
+    <t>gaurav.gupta@example.com</t>
+  </si>
+  <si>
+    <t>Anita Singh</t>
+  </si>
+  <si>
+    <t>anita.singh@example.com</t>
+  </si>
+  <si>
+    <t>Ravi Sharma</t>
+  </si>
+  <si>
+    <t>ravi.sharma@example.com</t>
+  </si>
+  <si>
+    <t>PQR Foundation</t>
+  </si>
+  <si>
+    <t>Sonam Verma</t>
+  </si>
+  <si>
+    <t>sonam.verma@example.com</t>
+  </si>
+  <si>
+    <t>Rajesh Patel</t>
+  </si>
+  <si>
+    <t>rajesh.patel@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organization_name</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,16 +528,43 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8.75"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF444654"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,15 +572,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -341,11 +833,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -353,83 +845,2154 @@
     <col min="1" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:rajesh.sharma@example.com" xr:uid="{00600937-4D5F-4497-9310-75CB56B9A9E9}"/>
+    <hyperlink ref="B3" r:id="rId2" display="mailto:priya.patel@example.com" xr:uid="{60E33A59-43AE-4B2E-97DB-69315CDB0D2B}"/>
+    <hyperlink ref="B4" r:id="rId3" display="mailto:amit.verma@example.com" xr:uid="{135E34C5-24EF-48C0-875E-579DDC16FC46}"/>
+    <hyperlink ref="B5" r:id="rId4" display="mailto:anita.gupta@example.com" xr:uid="{4CCC3D8A-6AED-4AC2-B601-0163E0DA7B6F}"/>
+    <hyperlink ref="B6" r:id="rId5" display="mailto:sanjay.singh@example.com" xr:uid="{95E74412-0DF9-4416-9F8C-4F9A923F4B29}"/>
+    <hyperlink ref="B7" r:id="rId6" display="mailto:neha.sharma@example.com" xr:uid="{01D511E9-EDAC-4089-8501-7F9F9FE048F7}"/>
+    <hyperlink ref="B8" r:id="rId7" display="mailto:vikram.patel@example.com" xr:uid="{75C79085-F6A4-4CAB-90EA-1F83173A5933}"/>
+    <hyperlink ref="B9" r:id="rId8" display="mailto:anjali.verma@example.com" xr:uid="{7DA5C30D-0835-4D78-B42C-AFD059894E82}"/>
+    <hyperlink ref="B10" r:id="rId9" display="mailto:aakash.gupta@example.com" xr:uid="{A714B381-1F1B-4340-9933-26F03D2EA973}"/>
+    <hyperlink ref="B11" r:id="rId10" display="mailto:smita.singh@example.com" xr:uid="{852B6773-C321-40E1-B503-F0BF3C70A04D}"/>
+    <hyperlink ref="B12" r:id="rId11" display="mailto:rahul.patel@example.com" xr:uid="{B9503696-D16B-4B6C-8F80-C956CBBA39EB}"/>
+    <hyperlink ref="B13" r:id="rId12" display="mailto:sneha.verma@example.com" xr:uid="{BF81AB52-59C3-44ED-BD7A-04B7FD032AC4}"/>
+    <hyperlink ref="B14" r:id="rId13" display="mailto:manoj.gupta@example.com" xr:uid="{EB54F24A-9C0B-4F66-B59B-88C3C36092DD}"/>
+    <hyperlink ref="B15" r:id="rId14" display="mailto:pooja.singh@example.com" xr:uid="{250B8B8B-C1FD-4EBF-9944-5D2C4F9F58E9}"/>
+    <hyperlink ref="B16" r:id="rId15" display="mailto:vinay.sharma@example.com" xr:uid="{10BD8FD2-7EC1-47AE-A788-EF93AA253A97}"/>
+    <hyperlink ref="B17" r:id="rId16" display="mailto:kavita.verma@example.com" xr:uid="{04C80725-89EC-47F5-A7FF-8300923788CC}"/>
+    <hyperlink ref="B18" r:id="rId17" display="mailto:rajat.patel@example.com" xr:uid="{6D44C526-2C2E-4E1A-BC6E-8D7D4487B778}"/>
+    <hyperlink ref="B19" r:id="rId18" display="mailto:divya.singh@example.com" xr:uid="{6F5FA214-E132-4450-9BCC-BFF6AE8A08E2}"/>
+    <hyperlink ref="B20" r:id="rId19" display="mailto:aman.gupta@example.com" xr:uid="{40D85E70-BEC8-4A30-B3FE-16267FEE1B98}"/>
+    <hyperlink ref="B21" r:id="rId20" display="mailto:renuka.sharma@example.com" xr:uid="{601417F6-F9F9-4403-81B3-684DFFF6051B}"/>
+    <hyperlink ref="B22" r:id="rId21" display="mailto:vishal.patel@example.com" xr:uid="{220C40A1-FAD1-40AE-B979-FB92ED6B7F5C}"/>
+    <hyperlink ref="B23" r:id="rId22" display="mailto:ananya.verma@example.com" xr:uid="{EDFB5F3C-1BA8-4E45-BC80-17F2375647CE}"/>
+    <hyperlink ref="B24" r:id="rId23" display="mailto:gaurav.gupta@example.com" xr:uid="{962E2643-889F-4684-8F35-011543FBBA83}"/>
+    <hyperlink ref="B25" r:id="rId24" display="mailto:anita.singh@example.com" xr:uid="{30D09B52-29A3-4485-901E-08E4482CA343}"/>
+    <hyperlink ref="B26" r:id="rId25" display="mailto:ravi.sharma@example.com" xr:uid="{BC423CFE-8EF7-44DE-9374-689453858B03}"/>
+    <hyperlink ref="B27" r:id="rId26" display="mailto:sonam.verma@example.com" xr:uid="{01AC6A28-667A-4AF5-B0F5-DDBDB376234D}"/>
+    <hyperlink ref="B28" r:id="rId27" display="mailto:rajesh.patel@example.com" xr:uid="{75DD3E8E-0672-476E-B16E-496DC4BBE31A}"/>
+    <hyperlink ref="B29" r:id="rId28" display="mailto:rajesh.sharma@example.com" xr:uid="{F0402F32-6B3B-46A4-8D26-209973B7BE29}"/>
+    <hyperlink ref="B30" r:id="rId29" display="mailto:priya.patel@example.com" xr:uid="{9E3D186B-7281-4779-987C-13EB73C6187C}"/>
+    <hyperlink ref="B31" r:id="rId30" display="mailto:amit.verma@example.com" xr:uid="{E2FD1C61-0035-451B-A248-995804D59BB6}"/>
+    <hyperlink ref="B32" r:id="rId31" display="mailto:anita.gupta@example.com" xr:uid="{EB0277BF-109B-42E4-B432-EFC0756CF419}"/>
+    <hyperlink ref="B33" r:id="rId32" display="mailto:sanjay.singh@example.com" xr:uid="{93CCFA0D-124B-46AB-9221-DE2B47CF5604}"/>
+    <hyperlink ref="B34" r:id="rId33" display="mailto:neha.sharma@example.com" xr:uid="{A9A90522-E7FF-4603-8C40-A89C082D7EC9}"/>
+    <hyperlink ref="B35" r:id="rId34" display="mailto:vikram.patel@example.com" xr:uid="{2D20CF9B-6E69-49DF-B9BA-6603E7709B1E}"/>
+    <hyperlink ref="B36" r:id="rId35" display="mailto:anjali.verma@example.com" xr:uid="{DE3F460F-FA89-40D3-A8C4-057753D2FF5A}"/>
+    <hyperlink ref="B37" r:id="rId36" display="mailto:aakash.gupta@example.com" xr:uid="{F4EF0CAB-DE3E-4664-B2AF-6C8DDDC541F0}"/>
+    <hyperlink ref="B38" r:id="rId37" display="mailto:smita.singh@example.com" xr:uid="{F8D52781-3114-433F-B6E3-D732C781C52C}"/>
+    <hyperlink ref="B39" r:id="rId38" display="mailto:rahul.patel@example.com" xr:uid="{8564F3A7-D498-4199-BDE4-DCC227B7ABCE}"/>
+    <hyperlink ref="B40" r:id="rId39" display="mailto:sneha.verma@example.com" xr:uid="{6FF1483D-F48B-4784-B2E9-C80DADE54FE8}"/>
+    <hyperlink ref="B41" r:id="rId40" display="mailto:manoj.gupta@example.com" xr:uid="{7B75EA8A-3BB2-4B75-A809-10E49284A202}"/>
+    <hyperlink ref="B42" r:id="rId41" display="mailto:pooja.singh@example.com" xr:uid="{252CA2E4-6D34-4419-A639-2F00BD8682B2}"/>
+    <hyperlink ref="B43" r:id="rId42" display="mailto:vinay.sharma@example.com" xr:uid="{FD4B67BB-51DF-4761-8361-E059E647D576}"/>
+    <hyperlink ref="B44" r:id="rId43" display="mailto:kavita.verma@example.com" xr:uid="{A9A23BA7-5F31-4100-90D2-3551B1768B28}"/>
+    <hyperlink ref="B45" r:id="rId44" display="mailto:rajat.patel@example.com" xr:uid="{B6B26D98-34FC-4DE1-B158-57281BAD43AB}"/>
+    <hyperlink ref="B46" r:id="rId45" display="mailto:divya.singh@example.com" xr:uid="{D9691ADA-F3BE-4E0C-8A79-7869CE148F5E}"/>
+    <hyperlink ref="B47" r:id="rId46" display="mailto:aman.gupta@example.com" xr:uid="{C33ECB10-D03F-4AA3-9ECA-38762CB51C11}"/>
+    <hyperlink ref="B48" r:id="rId47" display="mailto:renuka.sharma@example.com" xr:uid="{7370DBA7-D133-4875-9D93-6B5CEC9B951C}"/>
+    <hyperlink ref="B49" r:id="rId48" display="mailto:vishal.patel@example.com" xr:uid="{23AD7CE2-8322-4CA2-9AD6-C1532DA952B0}"/>
+    <hyperlink ref="B50" r:id="rId49" display="mailto:ananya.verma@example.com" xr:uid="{E48EF052-E576-47D7-9EDF-BD13D608AC0B}"/>
+    <hyperlink ref="B51" r:id="rId50" display="mailto:gaurav.gupta@example.com" xr:uid="{0487F9FA-1331-4502-949D-AB1F981F9283}"/>
+    <hyperlink ref="B52" r:id="rId51" display="mailto:anita.singh@example.com" xr:uid="{E4420B05-896D-4D1E-8957-C8FABBB4CA39}"/>
+    <hyperlink ref="B53" r:id="rId52" display="mailto:ravi.sharma@example.com" xr:uid="{67A0A8A2-3FBF-4F16-B12F-01554747AD32}"/>
+    <hyperlink ref="B54" r:id="rId53" display="mailto:sonam.verma@example.com" xr:uid="{3155C3BD-EF73-46F8-AD7F-A899D8865E5D}"/>
+    <hyperlink ref="B55" r:id="rId54" display="mailto:rajesh.patel@example.com" xr:uid="{0F1BAEBC-889C-4414-9FEF-57C013E09DE6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>